--- a/medicine/Mort/Forest_Lawn_Memorial_Park_(Glendale)/Forest_Lawn_Memorial_Park_(Glendale).xlsx
+++ b/medicine/Mort/Forest_Lawn_Memorial_Park_(Glendale)/Forest_Lawn_Memorial_Park_(Glendale).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Forest Lawn Memorial Park est un cimetière privé américain situé à Glendale au nord de Los Angeles en Californie. Le cimetière est le premier de la société Forest Lawn, qui possède et gère une chaîne de six cimetières en Californie du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Personnalités enterrées au cimetière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les noms précédés des lettres "NP" désignent des tombes situées dans des zones non accessibles au public.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les noms précédés des lettres "NP" désignent des tombes situées dans des zones non accessibles au public.
 Tombes anonymes non gravées (sans précision de cadastre)
 Edgar DeLange Moss, dit Eddie DeLange (15 janvier 1904 - 13 juillet 1949), Bandleader, compositeur, chef d'orchestre, auteur-compositeur, musicien de jazz, cascadeur
 Sommaire :
@@ -544,20 +558,55 @@
 Y
 Z
 0-9
-A
-John Aasen (1890–1938), acteur du cinéma muet
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>John Aasen (1890–1938), acteur du cinéma muet
 Forrest J Ackerman (1916–2008), écrivain, producteur de cinéma, éditeur et scénariste de films de science-fiction et d'horreur, connu pour son magazine Famous Monsters of Filmland sur le trucage et les monstres.
 Art Acord (1890–1931), acteur
 Fred Lind Alles (1851–1945), homme d'affaires, leader civique, secrétaire du National Irrigation Congress (en).
 Anita Louise Adler (1915–1970), actrice
 Maurice "Buddy" Adler (1909–1960), producteur
-Donald Addrisi (1938–1984), chanteur, membre du duo de chanteurs-compositeurs The Addrisi Brothers[1]
-Caroline Leonetti Ahmanson (en), femme d'affaires, philanthrope, épouse de Howard F. Ahmanson, Sr[2].
-Howard F. Ahmanson, Sr., financier, philanthrope[3]
+Donald Addrisi (1938–1984), chanteur, membre du duo de chanteurs-compositeurs The Addrisi Brothers
+Caroline Leonetti Ahmanson (en), femme d'affaires, philanthrope, épouse de Howard F. Ahmanson, Sr.
+Howard F. Ahmanson, Sr., financier, philanthrope
 Wally Albright, enfant acteur, rôle de Wally dans la mini-série Les Petites Canailles (Our Gang).
 Robert Alda (1914–1986), acteur et chanteur, père d'Alan et Antony Alda (en)
 Robert Aldrich (1918-1983), réalisateur
-Richard Alexander, acteur[4]
+Richard Alexander, acteur
 Ross Alexander (1907–1937), acteur
 Duane Allen (en) (1937–2003), joueur en National Football League (NFL)
 Gracie Allen (1895–1964), actrice et humoriste, épouse de George Burns
@@ -570,17 +619,52 @@
 NP Laverne Andrews (1911–1967), chanteuse, une des trois Andrews Sisters
 NP Maxene Andrews (1916–1995), chanteuse, une des trois Andrews Sisters
 Lucien Andriot (1892–1979), directeur de la photographie.
-George Archainbaud, réalisateur, producteur[5]
+George Archainbaud, réalisateur, producteur
 NP James Arness (1923–2011), acteur
 Isaac Colton Ash (en) (1861–1933), membre du Los Angeles City Council (1925–1927)
 Roscoe Ates (1895–1962), acteur et humoriste
 Gene Austin (1900–1972), chanteur
 Gene Autry (1907-1998), acteur, cow-boy chantant
 Tex Avery (1908-1980), réalisateur de dessins animés
-Marion Aye, actrice du cinéma muet[6]
-Mitchell Ayres (en) (1909–1969), musicien
-B
-Fay Babcock, décoratrice[7]
+Marion Aye, actrice du cinéma muet
+Mitchell Ayres (en) (1909–1969), musicien</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Fay Babcock, décoratrice
 NP Lauren Bacall (1924–2014), actrice
 Lloyd Bacon (1889-1955), acteur, réalisateur
 Constantin Bakaleinikoff (1896–1966), musicien
@@ -603,27 +687,27 @@
 Maud Gage Baum (en) (1861-1953), veuve de Lyman Frank Baum
 Warner Baxter (1889–1951), acteur
 Harry Beaumont (1888-1966), réalisateur
-John C. Becher (en), acteur[8]
-Robert "Iceberg Slim" Beck, auteur à succès[9]
-Claud Beelman (en), architecte[10]
+John C. Becher (en), acteur
+Robert "Iceberg Slim" Beck, auteur à succès
+Claud Beelman (en), architecte
 Wallace Beery (1885-1949), acteur
 Alphonzo Bell, Jr. (en), membre du Congrès
 Rex Bell, acteur et lieutenant-gouverneur du Nevada, mari de l'actrice Clara Bow
-Madge Bellamy, actrice[11]
+Madge Bellamy, actrice
 Lisa Ben, militante LGBT américaine
 Elsie Lincoln Benedict (en) (1885–1970), auteur et maître de conférences
-Henry S. Benedict (en), membre de la Chambre des représentants des États-Unis pour la Californie[12]
+Henry S. Benedict (en), membre de la Chambre des représentants des États-Unis pour la Californie
 William Benedict (en), acteur
 Enid Bennett, actrice, épouse de Fred Niblo et Sidney Franklin
 Marjorie Bennett, actrice
 Harry Beresford, acteur
-George Bergstrom, architecte[13]
+George Bergstrom, architecte
 Felix Bernard (en), compositeur
 Curtis Bernhardt, réalisateur
 Joe Besser (en) (1907–1988), acteur et humoriste, membre de la troupe The Three Stooges
 Claude Binyon, scénariste et réalisateur
 Billie Bird, actrice
-Julie Bishop, actrice[14]
+Julie Bishop, actrice
 J. Stuart Blackton, fondateur des studios Vitagraph
 Madge Blake, actrice
 Olive Blakeney, actrice
@@ -635,7 +719,7 @@
 Eric Blore, acteur
 Monte Blue, acteur
 Betty Blythe, actrice
-Eddie Bockman (en), joueur de baseball, manager, scout[15]
+Eddie Bockman (en), joueur de baseball, manager, scout
 True Boardman (en), acteur
 Virginia True Boardman, actrice
 NP Humphrey Bogart, acteur
@@ -647,11 +731,11 @@
 Clara Bow (1905–1965), actrice
 NP William Boyd, acteur, connu pour son rôle de Hopalong Cassidy
 NP Charles Brabin, réalisateur et scénariste d'origine britannique, mari de l'actrice Theda Bara
-Robert N. Bradbury, réalisateur et scénariste, père de Bob Steele[16]
+Robert N. Bradbury, réalisateur et scénariste, père de Bob Steele
 NP Grace Bradley, actrice, veuve de l'acteur William Boyd
-Lenny Breau, musicien (tombe anonyme)[17]
+Lenny Breau, musicien (tombe anonyme)
 Edmund Breese, acteur
-Tom Breneman (en), personnalité de la radio[18]
+Tom Breneman (en), personnalité de la radio
 Mozelle Britton (en), actrice
 John Bromfield, acteur
 Betty Bronson, actrice
@@ -661,11 +745,11 @@
 Joe E. Brown, acteur comique
 NP Johnny Mack Brown, acteur et athlète
 Lansing Brown, Jr., photographe
-Robert Brubaker, acteur de caractère[19]
+Robert Brubaker, acteur de caractère
 Winifred Bryson, actrice, veuve de l'acteur Warner Baxter
 Harold S. Bucquet, réalisateur
 Ralph Budd, président de compagnies de chemins de fer
-Vincent Bugliosi, avocat et auteur de livres sur la criminalité[20]
+Vincent Bugliosi, avocat et auteur de livres sur la criminalité
 Milo Burcham, pilote d'essai
 W. R. Burnett, romancier et scénariste
 Dorsey Burnette, chanteur et compositeur
@@ -675,19 +759,55 @@
 Francis X. Bushman, acteur
 David Butler, réalisateur
 Wally Byam, fondateur de Airstream, pionnier de la construction de caravanes
-Ralph Byrd, acteur[21]
-C
+Ralph Byrd, acteur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Christy Cabanne, réalisateur
 Charles Wakefield Cadman, compositeur
 Alice Calhoun (1900-1966), actrice
 Ransom M. Callicott, restaurateur et politicien
-Albert Ralph Campbell (en), Marine, récipiendaire de la Medal of Honor[22]
+Albert Ralph Campbell (en), Marine, récipiendaire de la Medal of Honor
 NP Judy Canova, actrice et chanteuse
 Eduardo Cansino, Sr., danseur
 June Caprice-Millarde, actrice
-Ora Carew, actrice[23]
+Ora Carew, actrice
 Sue Carol, actrice et agent artistique, épouse de Alan Ladd, belle-mère d'Alan Ladd Jr., mère de David Ladd (en)
-Nat Carr, acteur[24]
+Nat Carr, acteur
 David Carradine, (1936-2009), acteur
 Dona Lee Carrier, championne de patinage artistique
 Earl Carroll, imprésario de théâtre, propriétaire du Earl Carroll Theatre, à New York et Hollywood
@@ -711,53 +831,89 @@
 Stiles O. Clements, architecte
 Elmer Clifton, acteur et réalisateur
 Clifford E. Clinton, homme d'affaires, fondateur et propriétaire de la Clifton's Cafeteria
-John Clum, Indian agent (en), fondateur du journal The Tombstone Epitaph et premier maire de Tombstone (Arizona)[25]
+John Clum, Indian agent (en), fondateur du journal The Tombstone Epitaph et premier maire de Tombstone (Arizona)
 Andy Clyde, acteur
 Joe Cobb, acteur
 Maria Cole (1922-2012), chanteuse, veuve de Nat King Cole
 Nat King Cole (1919-1965), chanteur
 Natalie Cole (1950-2015), chanteuse-compositrice, fille de Nat King et Maria Cole
 Buddy Collette, musicien
-William Collier, Sr., acteur, cinéaste[26]
+William Collier, Sr., acteur, cinéaste
 Russ Columbo, chanteur
-Jack Conway, réalisateur, acteur[27]
+Jack Conway, réalisateur, acteur
 NP Sam Cooke, chanteur
 Lillian Copeland, athlète
 Philip Coppens, auteur
 NP Ellen Corby, actrice
 Regis Cordic, acteur
-Don Costello, acteur[28]
+Don Costello, acteur
 Edward Coxen, acteur
-Charles H. Crawford, criminel notoire, truand, chef du gang de l'hôtel de Ville à Los Angeles[29]
+Charles H. Crawford, criminel notoire, truand, chef du gang de l'hôtel de Ville à Los Angeles
 Kathryn Crawford, actrice
 Laird Cregar, acteur
 Donald Crisp, acteur et réalisateur
-George E. Cryer, 32e maire de Los Angeles[30]
-NP George Cukor, réalisateur (tombe anonyme)[31]
+George E. Cryer, 32e maire de Los Angeles
+NP George Cukor, réalisateur (tombe anonyme)
 Zara Cully, actrice
 Robert Cummings, acteur
 Lester Cuneo, acteur
 Edward S. Curtis, photographe
 Michael Curtiz, réalisateur
-D
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Fifi D'Orsay, actrice et chanteuse
 Babe Dahlgren (en), joueur de baseball en Major League
 Dan Dailey, acteur, chanteur et danseur
 Dorothy Dandridge, actrice et chanteuse
 Ruby Dandridge, actrice
-Mickey Daniels, acteur, un des premiers enfants ayant joué dans la mini-série The Our Gang[32]
-William H. Daniels, directeur de la photographie, photographe personnel de Greta Garbo[33]
+Mickey Daniels, acteur, un des premiers enfants ayant joué dans la mini-série The Our Gang
+William H. Daniels, directeur de la photographie, photographe personnel de Greta Garbo
 Jane Darwell, actrice
 Dorothy Davenport, actrice, scénariste, réalisatrice et productrice
 Ed J. Davenport, membre du Los Angeles City Council
 Delmer Daves, réalisateur, scénariste et producteur
 NP Altovise Davis (en), actrice et danseuse, épouse de Sammy Davis, Jr.
-George Davis, directeur artistique[34]
+George Davis, directeur artistique
 Jim Davis, acteur
 Mildred Davis, actrice
 NP Sammy Davis, Jr. (1925–1990), acteur, chanteur et danseur
 NP Sammy Davis, Sr. (1900–1988), danseur, père de Sammy Davis, Jr.
-Jack Dawn, maquilleur (tombe anonyme)[35]
+Jack Dawn, maquilleur (tombe anonyme)
 Sam De Grasse, acteur
 Julia Dean, actrice
 Carter DeHaven, acteur
@@ -767,13 +923,13 @@
 Georges Delerue, compositeur
 Cyril Delevanti, acteur
 Armando del Moral (en), journaliste sur le cinéma, a aidé à fonder les Golden Globes
-Hampton Del Ruth, acteur, réalisateur, producteur, scénariste[36]
-Joseph De Stefani, acteur[37]
+Hampton Del Ruth, acteur, réalisateur, producteur, scénariste
+Joseph De Stefani, acteur
 Buddy DeSylva, compositeur
 William Demarest, acteur de caractère, Oncle Charley dans Mes trois fils (My Three Sons)
 Carol Dempster, actrice
 Noah Dietrich, homme d'affaires
-Fannie Charles Dillon, compositrice, pianiste[38]
+Fannie Charles Dillon, compositrice, pianiste
 Alan Dinehart, acteur
 Elias Disney, père de Walt et Roy O. Disney
 Flora Call Disney, mère de Walt et de Roy O. Disney
@@ -797,29 +953,101 @@
 David Dukes, acteur
 Rosetta Duncan, artiste du spectacle
 Vivian Duncan, artiste du spectacle
-Scott R. Dunlap, réalisateur, producteur, scénariste et acteur[39]
+Scott R. Dunlap, réalisateur, producteur, scénariste et acteur
 Glenn S. Dumke, éducateur, chancelier de l'université d'État de Californie (1962-1982)
 Minta Durfee, actrice
 Junior Durkin, acteur
-E
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hubert Eaton, fondateur et directeur général des cimetières Forest Lawn
-Jay Eaton, acteur de caractère[40]
+Jay Eaton, acteur de caractère
 Mary Eaton, actrice
-Neely Edwards, acteur (tombe anonyme)[41]
+Neely Edwards, acteur (tombe anonyme)
 Ralph Edwards, animateur de radio et de télévision
-Arnold Ehret, nutritionniste et auteur de livres de régime, considéré comme le père de la naturopathie[42]
+Arnold Ehret, nutritionniste et auteur de livres de régime, considéré comme le père de la naturopathie
 Sally Eilers, actrice
 Dick Elliott, acteur de caractère
-Connie Emerald, actrice anglaise de théâtre, mère de Ida Lupino[43]
-Fern Emmett, actrice, épouse de Henry Roquemore[44]
+Connie Emerald, actrice anglaise de théâtre, mère de Ida Lupino
+Fern Emmett, actrice, épouse de Henry Roquemore
 Francis de Erdely, peintre
 Julian Eltinge, acteur et travesti
 Ray Enright, réalisateur
 Leon Errol, acteur
-Estelle Etterre, actrice[45]
-William E. Evans, membre du Congrès des États-Unis[46]
-Jason Evers, acteur[47]
-F
+Estelle Etterre, actrice
+William E. Evans, membre du Congrès des États-Unis
+Jason Evers, acteur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Douglas Fairbanks (1883–1939), acteur (ré-inhumé au Hollywood Forever Cemetery en 1941)
 Dot Farley, actrice
 Joseph Farnham, scénariste et monteur
@@ -830,10 +1058,10 @@
 Romaine Fielding, acteur et réalisateur
 W. C. Fields, acteur et humoriste
 Larry Fine (1902–1975), acteur comique et musicien, membre du trio The Three Stooges
-Margarita Fischer, actrice[48]
+Margarita Fischer, actrice
 Carrie Fisher (1956-2016), actrice, romancière, scénariste
 George Fitzmaurice, réalisateur
-Johnny Flamingo, chanteur de blues[49]
+Johnny Flamingo, chanteur de blues
 Frank P. Flint, politicien
 Errol Flynn (1909–1959), acteur
 Nina Foch, actrice
@@ -846,24 +1074,60 @@
 Ivor Francis (en), acteur
 Betty Francisco, actrice
 Bruno Frank, romancier et scénariste
-Chester Franklin, acteur, réalisateur, frère aîné du réalisateur et producteur Sidney Franklin[50]
+Chester Franklin, acteur, réalisateur, frère aîné du réalisateur et producteur Sidney Franklin
 M. J. Frankovich, producteur et athlète, fils adoptif de Joe E. Brown
-Nell Franse, actrice[51]
+Nell Franse, actrice
 Robert Frazer, acteur
-John D. Fredericks, membre du Congrès U.S[52].
+John D. Fredericks, membre du Congrès U.S.
 Charles K. French, acteur
 George B. French, acteur
 Rudolf Friml, compositeur
 Dwight Frye, acteur
 Charles E. Fuller, évangéliste
 Jules Furthman, scénariste
-G
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 NP Clark Gable, acteur
-Jacqueline Gadsden, actrice[53]
-Danny Gans, chanteur, acteur, humoriste, imitateur[54]
+Jacqueline Gadsden, actrice
+Danny Gans, chanteur, acteur, humoriste, imitateur
 Martin Garralaga, acteur
 Bud Geary (en), acteur
-Herb Geller, saxophoniste[55]
+Herb Geller, saxophoniste
 Rose A. George, First Lady de l'État de Rivers au Nigeria
 Jerry Giesler, avocat, défenseur de criminels
 John Gilbert, acteur
@@ -872,10 +1136,10 @@
 Tom Gilson, acteur
 NP Hermione Gingold, actrice
 J. Frank Glendon, acteur
-Peter Godfrey, acteur et réalisateur[56]
-Renee Godfrey, actrice et chanteuse, épouse de Peter Godfrey[57]
-NP Frances Goldwyn, actrice, épouse de Samuel Goldwyn[58]
-NP Samuel Goldwyn, producteur et magnat du cinéma[59]
+Peter Godfrey, acteur et réalisateur
+Renee Godfrey, actrice et chanteuse, épouse de Peter Godfrey
+NP Frances Goldwyn, actrice, épouse de Samuel Goldwyn
+NP Samuel Goldwyn, producteur et magnat du cinéma
 Edgar J. Goodspeed, théologien
 Huntley Gordon, acteur
 NP Jetta Goudal, actrice
@@ -885,22 +1149,58 @@
 NP Sid Grauman, agent d'artistes de théâtre, fondateur des Million Dollar Theater, Egyptian Theatre et Grauman's Chinese Theatre
 Gary Gray, acteur
 Alfred E. Green, réalisateur
-Burton E. Green (en), pétrolier, promoteur immobilier, cofondateur de Beverly Hills (Californie)[60].
-Harrison Greene, acteur[61]
+Burton E. Green (en), pétrolier, promoteur immobilier, cofondateur de Beverly Hills (Californie).
+Harrison Greene, acteur
 NP Sydney Greenstreet, acteur anglais
 NP Harold Grieve, directeur artistique, mari de Jetta Goudal
 Bessie Griffin (en), chanteuse
 Raymond Griffith, acteur
-Robert E. Gross, CEO et président de Lockheed Corporation[62]
+Robert E. Gross, CEO et président de Lockheed Corporation
 Paul A. Guilfoyle, acteur
 Fred L. Guiol, réalisateur et scénariste
-H
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Frank Hagney, acteur
 Alan Hale, Sr., acteur
 Nate Dogg, rappeur
 Ernest Haller, directeur de la photographie
-Kay Hammond, actrice[63]
-Lula Mae Hardaway, compositrice, mère du musicien Stevie Wonder[64]
+Kay Hammond, actrice
+Lula Mae Hardaway, compositrice, mère du musicien Stevie Wonder
 Russell Harlan, directeur de la photographie
 NP Jean Harlow, actrice
 Rex Harrison, acteur (cendres dispersées sur la tombe de son épouse, Lilli Palmer)
@@ -916,15 +1216,15 @@
 Jean Hersholt, acteur et humanitaire
 Louis Jean Heydt, acteur
 Ruth Hiatt, actrice
-Winston Hibler, voix de Disney, scénariste, producteur et réalisateur[65]
-Alfred Hickman (en), acteur anglais, mari de Nance O'Neil[66]
-NP Thelma Hill, actrice[67]
+Winston Hibler, voix de Disney, scénariste, producteur et réalisateur
+Alfred Hickman (en), acteur anglais, mari de Nance O'Neil
+NP Thelma Hill, actrice
 Józef Hofmann, pianiste concertiste et inventeur
 Fay Holden, actrice
 Charles A. Holland, membre du Los Angeles City Council (1929–1931)
 Alice Hollister, actrice
 George K. Hollister, directeur de la photographie (époux de la précédente)
-Burton Holmes, réalisateur et producteur, pionnier des films de voyage[68]
+Burton Holmes, réalisateur et producteur, pionnier des films de voyage
 Helen Holmes, actrice
 Bob Holt (en), acteur connu pour sa voix
 Gloria Hope, actrice, épouse de Lloyd Hughes
@@ -934,46 +1234,152 @@
 Edward Everett Horton, acteur de caractère, acteur de voix
 William K. Howard, réalisateur
 Adele C. Howells (en), dirigeant de l'Église de Jésus-Christ des saints des derniers jours
-Jobyna Howland, actrice[69]
+Jobyna Howland, actrice
 Lloyd Hughes, acteur, mari de Gloria Hope
 Rupert Hughes, réalisateur
 Cyril Hume, scénariste
 Maud Humphrey, suffragette et illustratrice en publicité, mère de Humphrey Bogart
 Marlin Hurt, acteur
 June Hutton, actrice et chanteuse
-Martha Hyer, actrice, veuve de Hal B. Wallis[70]
-I
-Wiard Ihnen, directeur artistique et chef décorateur, mari de la costumière Edith Head
+Martha Hyer, actrice, veuve de Hal B. Wallis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Wiard Ihnen, directeur artistique et chef décorateur, mari de la costumière Edith Head
 Rex Ingram, réalisateur irlandais
-George Irving, acteur[71]
-J
+George Irving, acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 NP Michael Jackson, artiste, chanteur et compositeur
 Carrie Jacobs-Bond (en), chanteuse et compositrice
 Elsie Janis, actrice
 DeWitt Jennings, acteur
-Adela Rogers St. Johns, journaliste, scénariste, romancier[72]
-Emory Johnson, réalisateur, acteur[73]
-Arthur Johnston (en), compositeur[74]
-Caro Jones (en), directeur de casting[75]
+Adela Rogers St. Johns, journaliste, scénariste, romancier
+Emory Johnson, réalisateur, acteur
+Arthur Johnston (en), compositeur
+Caro Jones (en), directeur de casting
 F. Richard Jones, réalisateur, producteur, mari de la costumière Irene Lentz
 Isham Jones, chef d'orchestre, saxophoniste, bassiste, compositeur
 NP Jennifer Jones, actrice
 Rupert Julian, réalisateur
 NP Ray June, directeur de la photographie
 Helmi Juvonen, artiste
-K
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Gus Kahn, compositeur
 Bert Kalmar, compositeur
 Terry Kath, musicien, guitariste, chanteur-compositeur baryton du groupe Chicago
 Tom Keene, acteur
 William Keighley, réalisateur
-Roy Kellino, enfant acteur, puis directeur de la photographie et réalisateur[76]
-John L. Kennedy, politicien, membre du Congrès du Nebraska's 2nd district[77]
+Roy Kellino, enfant acteur, puis directeur de la photographie et réalisateur
+John L. Kennedy, politicien, membre du Congrès du Nebraska's 2nd district
 A. Atwater Kent (en), homme d'affaires, fabricant de radios, inventeur de la bobine d'allumage
 Erle C. Kenton, acteur et réalisateur
 Doris Kenyon, actrice
-Hal C. Kern, monteur[78]
-Harry Kerr, compositeur, parolier[79]
+Hal C. Kern, monteur
+Harry Kerr, compositeur, parolier
 J. Warren Kerrigan, acteur et réalisateur
 Charles Henry King, grand-père paternel du président Gerald Ford
 Leslie Lynch King, Sr., père biologique du président Ford
@@ -981,10 +1387,46 @@
 Ted Knight, acteur
 Clarence Kolb, acteur
 Henry Kolker, acteur et réalisateur
-NP Red Kress, joueur de baseball[80]
-NP Kathryn Kuhlman, évangéliste[81]
+NP Red Kress, joueur de baseball
+NP Kathryn Kuhlman, évangéliste
 Edward A. Kull, directeur de la photographie et réalisateur
-L
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Louis L'Amour, romancier
 Alan Ladd, acteur, père d'Alan Ladd Jr. et de David Ladd (en)
 David Landau, acteur
@@ -1003,7 +1445,7 @@
 Robert Z. Leonard, réalisateur
 Elgin Lessley, directeur de la photographie
 Gus Levene, compositeur
-David Lewis, producteur, partenaire de James Whale[82]
+David Lewis, producteur, partenaire de James Whale
 Mitchell Lewis, acteur
 Ann Little, actrice
 Lucien Littlefield, acteur
@@ -1020,70 +1462,142 @@
 Ernst Lubitsch, réalisateur
 Ida Lupino, actrice et réalisatrice
 Hamilton Luske, animateur et réalisateur
-Eustace Lycett, artiste en effets spéciaux et visuels chez Disney[83]
-M
+Eustace Lycett, artiste en effets spéciaux et visuels chez Disney
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Jeanette MacDonald, actrice et chanteuse
 Jim MacDonald, artiste de voix chez Disney, musicien, chef du département des effets sonores chez Disney, seconde voix de Mickey Mouse
 Kenneth MacKenna, acteur et réalisateur
 Mary MacLaren, actrice
 Douglas MacLean, acteur, producteur et scénariste
 Rouben Mamoulian, réalisateur
-Edwin L. Marin, réalisateur[84]
-Oliver T. Marsh, directeur de la photographie chez MGM, frère des actrices Marguerite Marsh et Mae Marsh, père du saxophoniste Warne Marsh[85]
-Warne Marsh, saxophoniste ténor, fils d'Oliver T. Marsh, directeur de la photographie chez MGM[86]
+Edwin L. Marin, réalisateur
+Oliver T. Marsh, directeur de la photographie chez MGM, frère des actrices Marguerite Marsh et Mae Marsh, père du saxophoniste Warne Marsh
+Warne Marsh, saxophoniste ténor, fils d'Oliver T. Marsh, directeur de la photographie chez MGM
 Alan Marshal, acteur
 Chico Marx (1887–1961), acteur comique
 Gummo Marx (1893–1977), agent
 LeRoy Mason, acteur
-NP Will Mastin, danseur et chanteur, leader du Will Mastin Trio[87]
+NP Will Mastin, danseur et chanteur, leader du Will Mastin Trio
 NP Daya Mata, leader religieux
-Doris May, actrice (tombe anonyme)[88]
+Doris May, actrice (tombe anonyme)
 Erskine Mayer, joueur de baseball
 Mike Mazurki, acteur et catcheur
 Marian McCargo, actrice
 Meade McClanahan, membre du Los Angeles City Council
 Gladys McConnell, actrice
-Ted McCord, directeur de la photographie[89]
+Ted McCord, directeur de la photographie
 Johnston McCulley, auteur et scénariste, créateur de Zorro
 Marc McDermott, acteur
 Marie McDonald, actrice et modèle
 Frank McGlynn Sr., acteur
 J.P. McGowan, réalisateur
 Frank McGrath, acteur
-Malcolm McGregor, acteur[90]
-Burr Macintosh (en), photographe, éditeur, acteur[91]
-Wanda McKay, actrice[92]
+Malcolm McGregor, acteur
+Burr Macintosh (en), photographe, éditeur, acteur
+Wanda McKay, actrice
 Robert McKimson, animateur et réalisateur
-James McLachlan, membre de la Chambre des représentants des États-Unis pour la Californie[93]
+James McLachlan, membre de la Chambre des représentants des États-Unis pour la Californie
 NP Victor McLaglen, acteur
 Jimmy McLarnin, champion de boxe
-Gloria Hatrick McLean, modèle, militante pour les droits des animaux et épouse de l'acteur Jimmy Stewart[94]
+Gloria Hatrick McLean, modèle, militante pour les droits des animaux et épouse de l'acteur Jimmy Stewart
 Norman Z. McLeod, réalisateur
-Joseph T. McNarney, général de l'armée américaine[95]
+Joseph T. McNarney, général de l'armée américaine
 Aimee Semple McPherson, évangéliste
-Rolf McPherson, chef confessionnel, clerc, fils d'Aimee Semple McPherson[96]
-Henrietta Mears, éducatrice chrétienne[97]
-Blanche Mehaffey, actrice et danseuse[98]
+Rolf McPherson, chef confessionnel, clerc, fils d'Aimee Semple McPherson
+Henrietta Mears, éducatrice chrétienne
+Blanche Mehaffey, actrice et danseuse
 Dimitre Mehandjiysky, artiste
-William C. Mellor, directeur de la photographie[99]
+William C. Mellor, directeur de la photographie
 William Cameron Menzies, directeur artistique
 Beryl Mercer, actrice
-Iris Meredith, actrice[100]
-Bess Meredyth, scénariste, a été l'épouse des réalisateurs Wilfred Lucas et Michael Curtiz et est la mère du scénariste John Meredyth Lucas[101]
+Iris Meredith, actrice
+Bess Meredyth, scénariste, a été l'épouse des réalisateurs Wilfred Lucas et Michael Curtiz et est la mère du scénariste John Meredyth Lucas
 Robert Andrews Millikan, prix Nobel de physique en 1923
 Vincente Minnelli, réalisateur
 Mihály Mészáros, acteur interprétant Alf
 Tom Mix, acteur
 Polly Moran, actrice
-Rushton Moree, bassiste du groupe Steppenwolf[102]
+Rushton Moree, bassiste du groupe Steppenwolf
 Antonio Moreno, acteur et réalisateur
 Clayton Moore, acteur, a tenu le rôle du Lone Ranger au cinéma
-Del Moore, comique, acteur et présentateur de radio[103]
-Ernest Carroll Moore, éducateur, cofondateur de l'université de Californie à Los Angeles[104]
+Del Moore, comique, acteur et présentateur de radio
+Ernest Carroll Moore, éducateur, cofondateur de l'université de Californie à Los Angeles
 Harvey Seeley Mudd, ingénieur et éducateur
-William Mulholland, ingénieur, concepteur des Los Angeles Aqueduc, barrage du Mulholland (en), barrage de St. Francis et du canal de Panama, a donné son nom à la Mulholland Drive[105]
+William Mulholland, ingénieur, concepteur des Los Angeles Aqueduc, barrage du Mulholland (en), barrage de St. Francis et du canal de Panama, a donné son nom à la Mulholland Drive
 Spud Murphy, compositeur
-N
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Charles W. Nash, constructeur automobile, cofondateur de Nash Motors
 Alla Nazimova, actrice, fondatrice et propriétaire de l'hôtel Garden of Allah (en)
 Clarence H. Nelson, médecin de F. Scott Fitzgerald
@@ -1096,7 +1610,43 @@
 Marian Nixon, actrice
 L. L. Nunn, éducateur
 Ervin Nyíregyházi, pianiste
-O
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Eugene O'Brien, acteur
 Virginia O'Brien, actrice et chanteuse
 Cathy O'Donnell, actrice
@@ -1111,17 +1661,53 @@
 Anne O'Neal, actrice
 Maria Ouspenskaïa, actrice
 Richard F. Outcault, dessinateur, auteur de bandes dessinées , créateur de la bande dessinée Buster Brown et du personnage Yellow Kid
-NP Tudor Owen, acteur de caractère[106]
+NP Tudor Owen, acteur de caractère
 Monroe Owsley, acteur
-P
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Doris Packer, actrice
 Ernest Palmer, directeur de la photographie
 Lilli Palmer, actrice
 Franklin Pangborn, acteur
 NP Alexander Pantages, imprésario de théâtre, fondateur des Pantages Theatres
 James Parrott, acteur, humoriste et réalisateur, jeune frère de Charley Chase
-Marion Parker, victime d'un assassinat[107]
-John B. Parkinson, architecte[108]
+Marion Parker, victime d'un assassinat
+John B. Parkinson, architecte
 Allen E. Paulson (en), entrepreneur dans l'aviation
 Claude Payton, acteur
 Lucy Payton, actrice
@@ -1132,7 +1718,7 @@
 NP Jack Pickford, acteur
 NP Lottie Pickford, actrice
 NP Mary Pickford, actrice, femme d'affaires, cofondatrice d'United Artists
-Jack Pierce, maquilleur[109]
+Jack Pierce, maquilleur
 Robert Pierce, humanitaire et réformateur social
 Michael Blodgett, acteur, scénariste et romancier américain
 Lon Poff, acteur
@@ -1140,22 +1726,92 @@
 John Robert Powers, propriétaire d'une agence de modèles
 Mala Powers, actrice
 Merrill Pye, directeur artistique
-Q
-Fred Quimby, producteur aux Metro-Goldwyn-Mayer cartoon studio et Hanna-Barbera animated cartoons
-John Qualen, acteur
-R
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Fred Quimby, producteur aux Metro-Goldwyn-Mayer cartoon studio et Hanna-Barbera animated cartoons
+John Qualen, acteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Paul Rader, évangéliste
 Ralph Rainger, compositeur
 Albertina Rasch, danseuse, épouse du compositeur Dimitri Tiomkin
-Charles Ray, acteur, réalisateur, producteur, scénariste (tombe anonyme)[110]
+Charles Ray, acteur, réalisateur, producteur, scénariste (tombe anonyme)
 Gene Raymond, acteur, mari de Jeanette MacDonald
 Jack Raymond, acteur et réalisateur
 Dorothea Holt Redmond, directeur artistique et décorateur
 Phillip Reed, acteur
-Vivian Reed, actrice du muet, épouse d'Alfred E. Green[111]
+Vivian Reed, actrice du muet, épouse d'Alfred E. Green
 Wallace Reid, acteur
 Irving Leroy Ress, médecin
-Craig Reynolds, acteur[112]
+Craig Reynolds, acteur
 Debbie Reynolds (1932-2016), actrice, artiste de variétés, femme d'affaires et historienne de cinéma.
 Jim Rohn, entrepreneur
 Cleo Ridgely, actrice
@@ -1163,22 +1819,58 @@
 Lyda Roberti, actrice
 Beverly Roberts, actrice
 Blossom Rock, actrice, sœur aînée de Jeanette MacDonald
-Will Rogers, acteur, humoriste, chroniqueur de journal (déplacé au Will Rogers Memorial à Claremore (Oklahoma) en 1946)[113],[114]
+Will Rogers, acteur, humoriste, chroniqueur de journal (déplacé au Will Rogers Memorial à Claremore (Oklahoma) en 1946),
 Ruth Roland, actrice et productrice
 Gladys Root, avocat de défense pénale
 Albert Roscoe, acteur
 Henry Roquemore, acteur
 Alan Roscoe, acteur
-Bodil Rosing, actrice danoise, belle-mère de l'acteur Monte Blue[115]
-J. Walter Ruben, réalisateur et scénariste[116]
+Bodil Rosing, actrice danoise, belle-mère de l'acteur Monte Blue
+J. Walter Ruben, réalisateur et scénariste
 NP Charlie Ruggles, acteur, frère aîné du réalisateur et producteur Wesley Ruggles
 NP Wesley Ruggles, réalisateur et producteur, jeune frère de Charlie Ruggles
-Barbara Ruick, actrice, fille de Lurene Tuttle, épouse du compositeur John Williams et mère de Joseph Williams, membre et chanteur principal de Toto[117]
+Barbara Ruick, actrice, fille de Lurene Tuttle, épouse du compositeur John Williams et mère de Joseph Williams, membre et chanteur principal de Toto
 William Russell, acteur
-S
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 NP S. Z. Sakall, acteur
 Chic Sale, acteur
-Ben L. Salomon (en), dentiste, bénéficiaire à titre posthume de la Medal of Honor pour son service pendant la Deuxième Guerre mondiale[118]
+Ben L. Salomon (en), dentiste, bénéficiaire à titre posthume de la Medal of Honor pour son service pendant la Deuxième Guerre mondiale
 Drake Sather, comédien et scénariste
 Paul Sawtell, d'origine polonaise, compositeur de musique de film
 Paul Scardon, acteur, producteur, réalisateur
@@ -1188,25 +1880,25 @@
 Don Sebastian, lutteur
 Sybil Seely, actrice
 William A. Seiter, réalisateur
-NP Lesley Selander, réalisateur[119]
+NP Lesley Selander, réalisateur
 William Edwin Self, acteur et producteur
 NP David O. Selznick, producteur, fondateur de Selznick International Pictures
 NP Lewis J. Selznick, producteur et pionnier de l'industrie cinématographique
 NP Myron Selznick, producteur et agent de talents
-NP Fred Sersen, peintre et artiste spécialiste des effets spéciaux[120]
-Helen Shaw, actrice de caractère[121]
+NP Fred Sersen, peintre et artiste spécialiste des effets spéciaux
+Helen Shaw, actrice de caractère
 Ethel Shannon, actrice
 Athole Shearer (en), actrice, sœur de Norma Shearer
 NP Norma Shearer, actrice, épouse d'Irving Thalberg
 Lowell Sherman, réalisateur et acteur
-Leo Shuken, compositeur[122]
-Louis Silvers, compositeur de musique de film[123]
+Leo Shuken, compositeur
+Louis Silvers, compositeur de musique de film
 S. Sylvan Simon, réalisateur
 Russell Simpson, acteur
 NP Red Skelton, acteur et humoriste
 Edward Sloman, acteur, réalisateur et scénariste
 Tod Sloan, jockey qui a innové par une position accroupie basse sur le cou du cheval
-H. Allen Smith, politicien, membre du Congrès[124]
+H. Allen Smith, politicien, membre du Congrès
 Rainbeaux Smith, actrice
 R. Thomas Smith, dresseur du pur-sang Seabiscuit
 NP William French Smith, procureur général des États-Unis
@@ -1214,11 +1906,11 @@
 Marguerite Snow, actrice
 Carl Spitz, éducateur canin
 Leo Spitz, film executive
-NP Bunker Spreckels (en), descendant du baron allemand du sucre Claus Spreckels, beau-fils de Clark Gable, pionnier des planches de surf pisciformes[125]
+NP Bunker Spreckels (en), descendant du baron allemand du sucre Claus Spreckels, beau-fils de Clark Gable, pionnier des planches de surf pisciformes
 Hanley Stafford, acteur
 John M. Stahl, réalisateur et producteur
 NP Lionel Stander, acteur
-Jules C. Stein, médecin, cofondateur de Music Corporation of America(MCA Inc.) et du Jules Stein Eye Institute[126]
+Jules C. Stein, médecin, cofondateur de Music Corporation of America(MCA Inc.) et du Jules Stein Eye Institute
 Max Steiner, compositeur
 Casey Stengel, manager dans la Ligue majeure de baseball (MLB)
 James Stephenson, acteur
@@ -1227,36 +1919,108 @@
 Ruth Stonehouse, actrice et réalisatrice
 Axel Stordahl (en), compositeur et arrangeur
 Herbert Stothart, compositeur
-Archie Stout, directeur de la photographie[127]
+Archie Stout, directeur de la photographie
 Joseph Strauss, architecte, ingénieur du Golden Gate Bridge et pionnier des ponts à bascule
 Elbridge Amos Stuart, industriel, fondateur et président de la Carnation Milk Company
 Jan Styka, peintre
-T
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Frank Tashlin, animateur, réalisateur, scénariste
-Art Tatum, musicien (enterré initialement au Angelus-Rosedale Cemetery (en) et ré-inhumé en 1991)[128],[129]
+Art Tatum, musicien (enterré initialement au Angelus-Rosedale Cemetery (en) et ré-inhumé en 1991),
 Elizabeth Taylor, actrice, militante
 NP Robert Taylor, acteur
 NP Irving Thalberg, producteur
 NP Ursula Thiess, actrice, épouse de Robert Taylor
-Jefferson Thomas, icône des droits civiques, un des neuf de Little Rock[130]
+Jefferson Thomas, icône des droits civiques, un des neuf de Little Rock
 Fred Thomson, acteur
 Edward L. Thrasher, membre du Los Angeles City Council
 Chief Thundercloud, acteur
 Lawrence Tibbett, acteur et chanteur d'opéra
 Dimitri Tiomkin, compositeur
-Genevieve Tobin, actrice, épouse de William Keighley[131]
+Genevieve Tobin, actrice, épouse de William Keighley
 Sammee Tong, acteur
 Ernest Torrence, acteur
 Raquel Torres, actrice
-Louise Tracy, fondatrice de la clinique John Tracy pour enfants sourds, épouse de Spencer Tracy[132]
+Louise Tracy, fondatrice de la clinique John Tracy pour enfants sourds, épouse de Spencer Tracy
 Spencer Tracy, acteur
 Henry Travers, acteur
 Emerson Treacy, acteur
-Lamar Trotti, reporter, scénariste, producteur, directeur exécutif à la 20th Century Fox[133]
+Lamar Trotti, reporter, scénariste, producteur, directeur exécutif à la 20th Century Fox
 Jim Tully, scénariste
 Ben Turpin, acteur comique
-Lurene Tuttle, actrice, mère de Barbara Ruick[134]
-V
+Lurene Tuttle, actrice, mère de Barbara Ruick
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Valda Valkyrien, ballerine
 NP Vang Pao, général hmong de la Royal Laotian Army et de la CIA
 W. S. Van Dyke, réalisateur
@@ -1266,7 +2030,43 @@
 Theodore von Eltz, acteur
 Rufus B. von KleinSmid, ancien président de l'université de l'Arizona et de l'université de Californie du Sud
 Gustav von Seyffertitz, acteur
-W
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 George Waggner, acteur, réalisateur et producteur
 Sir William James Wanless, chirurgien
 Jerry Wald, producteur et scénariste
@@ -1280,8 +2080,8 @@
 Jay Ward, producteur et scénariste de plusieurs séries d'animation
 Ethel Waters, actrice et chanteuse
 Johnny "Guitar" Watson, musicien
-Roy Webb, compositeur (tombe anonyme)[135]
-Alice Stebbins Wells, première femme américaine officier de police, au Los Angeles Police Department[136]
+Roy Webb, compositeur (tombe anonyme)
+Alice Stebbins Wells, première femme américaine officier de police, au Los Angeles Police Department
 Mary Wells, chanteuse
 Roland West, réalisateur
 Gordon Westcott, acteur
@@ -1295,10 +2095,141 @@
 Richard A. Whiting, compositeur de chansons populaires
 Gayne Whitman, acteur
 Ted Wilde, réalisateur et scénariste
-Warren William, acteur (cendres dispersées dans la Long Island Sound, cénotaphe sur la tombe de sa veuve)[137]
+Warren William, acteur (cendres dispersées dans la Long Island Sound, cénotaphe sur la tombe de sa veuve)
 Clara Williams, actrice
 Earle Williams, acteur
-Rob</t>
+Robert Williams, acteur
+Dorothy Wilson, actrice
+Lois Wilson, actrice
+Claire Windsor, actrice
+Grant Withers, acteur
+Gloria Wood, chanteuse et actrice de voix
+Sam Wood, réalisateur, producteur, scénariste, acteur
+Stacy Woodard, cinéaste de films sur la nature
+Ali-Ollie Woodson, musicien et membre des Temptations
+Bobby Womack, chanteur soul (niche banalisée),
+Harry Womack, soul chanteur, membre du groupe The Valentinos, jeune frère de Bobby Womack, frère aîné de Cecil Womack (en)
+George Woolf, jockey du cheval de course Seabiscuit (au Hall of Fame)
+John Elgin Woolf, architecte
+Robert Woolsey, acteur
+Hank Worden, acteur de caractère
+Wallace Worsley, acteur de théâtre, puis réalisateur du cinéma muet
+NP Philip K. Wrigley, fabricant de chewing gum, MLB executive, fondateur de l'All-American Girls Professional Baseball League, fils de William Wrigley Jr.
+NP William Wrigley Jr., magnat du chewing gum, propriétaire des Chicago Cubs
+Robert Wyler, producteur, frère aîné de William Wyler, mari de Cathy O'Donnell
+William Wyler, réalisateur et producteur
+Patrice Wymore, actrice, veuve d'Errol Flynn
+NP Ed Wynn, acteur, père de Keenan Wynn
+NP Keenan Wynn, acteur de caractère, fils d'Ed Wynn
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+James "J-Dilla" Yancey, producteur de hip-hop
+Barton Yarborough (en), acteur
+NP Paramahansa Yogananda, guru spirituel et auteur indien
+Robert Young, acteur
+Joe Yule, acteur et père de Mickey Rooney
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forest_Lawn_Memorial_Park_(Glendale)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Personnalités enterrées au cimetière</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lee Zahler, compositeur, directeur musical
+Florenz Ziegfeld Jr., imprésario à Broadway (maintenant enterré au cimetière de Kensico),
+Sommaire :
+Haut – A
+B
+C
+D
+E
+F
+G
+H
+I
+J
+K
+L
+M
+N
+O
+P
+Q
+R
+S
+T
+U
+V
+W
+X
+Y
+Z
+0-9
+</t>
         </is>
       </c>
     </row>
